--- a/biology/Médecine/Alfred_Collineau/Alfred_Collineau.xlsx
+++ b/biology/Médecine/Alfred_Collineau/Alfred_Collineau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alfred Charles Collineau, né le 22 mars 1832 à Ancenis et mort le 7 janvier 1905 à Neuilly-sur-Seine[1], est un médecin français. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alfred Charles Collineau, né le 22 mars 1832 à Ancenis et mort le 7 janvier 1905 à Neuilly-sur-Seine, est un médecin français. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Collineau est le fils d'Émile Collineau (1804-?), docteur en médecine, maire d’Ancenis en 1845, et d'Esther Marie Lefebvre. Petit-fils de Charles Collineau, maire d'Ancenis de 1808 à 1815, et arrière petit-fils de René Palierne de La Haudussais, il est le frère d'Émile Collineau (1833-1892), adjoint au maire d'Ancenis, conseiller d'arrondissement et suppléant du juge de paix, époux d'Adèle de Meezemaker. 
 Reçu docteur en médecine en 1859, il exerce les fonctions de médecin du bureau de bienfaisance et du dispensaire de la Société philanthropique et celles médecin-inspecteur des écoles communales du 3e arrondissement de Paris.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en coll. avec Ferdinand Martin) De la Coxalgie, de sa nature, de son traitement, éd. Delahaye (1864)
 Du placement des aliénés dans les asiles publics du Département de la Seine (1874)
